--- a/Financials/Yearly/TSCDY_YR_FIN.xlsx
+++ b/Financials/Yearly/TSCDY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B057C96-C4B2-4A63-A2C1-D1683499D30B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSCDY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,34 +689,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -708,88 +743,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>75703600</v>
+        <v>74986100</v>
       </c>
       <c r="E8" s="3">
-        <v>73630900</v>
+        <v>72933100</v>
       </c>
       <c r="F8" s="3">
-        <v>71018400</v>
+        <v>70345400</v>
       </c>
       <c r="G8" s="3">
-        <v>74958300</v>
+        <v>74247800</v>
       </c>
       <c r="H8" s="3">
-        <v>83691200</v>
+        <v>82898000</v>
       </c>
       <c r="I8" s="3">
-        <v>83492400</v>
+        <v>82701100</v>
       </c>
       <c r="J8" s="3">
-        <v>84163900</v>
+        <v>83366300</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>71227800</v>
+        <v>70552700</v>
       </c>
       <c r="E9" s="3">
-        <v>69656900</v>
+        <v>68996700</v>
       </c>
       <c r="F9" s="3">
-        <v>67319600</v>
+        <v>66681500</v>
       </c>
       <c r="G9" s="3">
-        <v>71431900</v>
+        <v>70754900</v>
       </c>
       <c r="H9" s="3">
-        <v>77444400</v>
+        <v>76710400</v>
       </c>
       <c r="I9" s="3">
-        <v>157788300</v>
+        <v>156292900</v>
       </c>
       <c r="J9" s="3">
-        <v>77057200</v>
+        <v>76326900</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4475800</v>
+        <v>4433300</v>
       </c>
       <c r="E10" s="3">
-        <v>3974100</v>
+        <v>3936400</v>
       </c>
       <c r="F10" s="3">
-        <v>3698900</v>
+        <v>3663800</v>
       </c>
       <c r="G10" s="3">
-        <v>3526400</v>
+        <v>3492900</v>
       </c>
       <c r="H10" s="3">
-        <v>6246900</v>
+        <v>6187600</v>
       </c>
       <c r="I10" s="3">
-        <v>-74295900</v>
+        <v>-73591800</v>
       </c>
       <c r="J10" s="3">
-        <v>7106700</v>
+        <v>7039400</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,7 +837,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -829,7 +864,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -856,34 +891,34 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="E14" s="3">
-        <v>563600</v>
+        <v>558200</v>
       </c>
       <c r="F14" s="3">
-        <v>484600</v>
+        <v>480000</v>
       </c>
       <c r="G14" s="3">
-        <v>10062900</v>
+        <v>9967500</v>
       </c>
       <c r="H14" s="3">
-        <v>837500</v>
+        <v>829500</v>
       </c>
       <c r="I14" s="3">
-        <v>1145600</v>
+        <v>1134700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -910,7 +945,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -920,61 +955,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73284600</v>
+        <v>72590100</v>
       </c>
       <c r="E17" s="3">
-        <v>72291800</v>
+        <v>71606600</v>
       </c>
       <c r="F17" s="3">
-        <v>69606800</v>
+        <v>68947100</v>
       </c>
       <c r="G17" s="3">
-        <v>82529800</v>
+        <v>81747600</v>
       </c>
       <c r="H17" s="3">
-        <v>80226700</v>
+        <v>79466400</v>
       </c>
       <c r="I17" s="3">
-        <v>80355800</v>
+        <v>79594200</v>
       </c>
       <c r="J17" s="3">
-        <v>78657100</v>
+        <v>77911700</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2418900</v>
+        <v>2396000</v>
       </c>
       <c r="E18" s="3">
-        <v>1339200</v>
+        <v>1326500</v>
       </c>
       <c r="F18" s="3">
-        <v>1411600</v>
+        <v>1398200</v>
       </c>
       <c r="G18" s="3">
-        <v>-7571500</v>
+        <v>-7499800</v>
       </c>
       <c r="H18" s="3">
-        <v>3464500</v>
+        <v>3431600</v>
       </c>
       <c r="I18" s="3">
-        <v>3136600</v>
+        <v>3106900</v>
       </c>
       <c r="J18" s="3">
-        <v>5506800</v>
+        <v>5454600</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -987,142 +1022,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-223900</v>
+        <v>-221700</v>
       </c>
       <c r="E20" s="3">
-        <v>-574100</v>
+        <v>-568700</v>
       </c>
       <c r="F20" s="3">
-        <v>-636000</v>
+        <v>-630000</v>
       </c>
       <c r="G20" s="3">
-        <v>-244900</v>
+        <v>-242600</v>
       </c>
       <c r="H20" s="3">
-        <v>113200</v>
+        <v>112200</v>
       </c>
       <c r="I20" s="3">
-        <v>156700</v>
+        <v>155200</v>
       </c>
       <c r="J20" s="3">
-        <v>351600</v>
+        <v>348300</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3894000</v>
+        <v>3882300</v>
       </c>
       <c r="E21" s="3">
-        <v>2475800</v>
+        <v>2477600</v>
       </c>
       <c r="F21" s="3">
-        <v>2525700</v>
+        <v>2527700</v>
       </c>
       <c r="G21" s="3">
-        <v>-5780400</v>
+        <v>-5695500</v>
       </c>
       <c r="H21" s="3">
-        <v>5633500</v>
+        <v>5610500</v>
       </c>
       <c r="I21" s="3">
-        <v>5379200</v>
+        <v>5359100</v>
       </c>
       <c r="J21" s="3">
-        <v>7823600</v>
+        <v>7778600</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>485900</v>
+        <v>481300</v>
       </c>
       <c r="E22" s="3">
-        <v>574100</v>
+        <v>568700</v>
       </c>
       <c r="F22" s="3">
-        <v>509600</v>
+        <v>504800</v>
       </c>
       <c r="G22" s="3">
-        <v>524100</v>
+        <v>519100</v>
       </c>
       <c r="H22" s="3">
-        <v>603100</v>
+        <v>597400</v>
       </c>
       <c r="I22" s="3">
-        <v>584700</v>
+        <v>579100</v>
       </c>
       <c r="J22" s="3">
-        <v>541200</v>
+        <v>536100</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1709200</v>
+        <v>1693000</v>
       </c>
       <c r="E23" s="3">
-        <v>190900</v>
+        <v>189100</v>
       </c>
       <c r="F23" s="3">
-        <v>266000</v>
+        <v>263500</v>
       </c>
       <c r="G23" s="3">
-        <v>-8340500</v>
+        <v>-8261500</v>
       </c>
       <c r="H23" s="3">
-        <v>2974600</v>
+        <v>2946400</v>
       </c>
       <c r="I23" s="3">
-        <v>2708600</v>
+        <v>2683000</v>
       </c>
       <c r="J23" s="3">
-        <v>5317200</v>
+        <v>5266800</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>402900</v>
+        <v>399100</v>
       </c>
       <c r="E24" s="3">
-        <v>114600</v>
+        <v>113500</v>
       </c>
       <c r="F24" s="3">
-        <v>-71100</v>
+        <v>-70400</v>
       </c>
       <c r="G24" s="3">
-        <v>-882200</v>
+        <v>-873900</v>
       </c>
       <c r="H24" s="3">
-        <v>456900</v>
+        <v>452600</v>
       </c>
       <c r="I24" s="3">
-        <v>696600</v>
+        <v>690000</v>
       </c>
       <c r="J24" s="3">
-        <v>1150900</v>
+        <v>1140000</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1149,61 +1184,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1306300</v>
+        <v>1293900</v>
       </c>
       <c r="E26" s="3">
-        <v>76400</v>
+        <v>75600</v>
       </c>
       <c r="F26" s="3">
-        <v>337100</v>
+        <v>333900</v>
       </c>
       <c r="G26" s="3">
-        <v>-7458300</v>
+        <v>-7387600</v>
       </c>
       <c r="H26" s="3">
-        <v>2517700</v>
+        <v>2493800</v>
       </c>
       <c r="I26" s="3">
-        <v>2012100</v>
+        <v>1993000</v>
       </c>
       <c r="J26" s="3">
-        <v>4166300</v>
+        <v>4126800</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1303600</v>
+        <v>1291300</v>
       </c>
       <c r="E27" s="3">
-        <v>94800</v>
+        <v>93900</v>
       </c>
       <c r="F27" s="3">
-        <v>348900</v>
+        <v>345600</v>
       </c>
       <c r="G27" s="3">
-        <v>-7425400</v>
+        <v>-7355000</v>
       </c>
       <c r="H27" s="3">
-        <v>2523000</v>
+        <v>2499100</v>
       </c>
       <c r="I27" s="3">
-        <v>2017300</v>
+        <v>1998200</v>
       </c>
       <c r="J27" s="3">
-        <v>4155800</v>
+        <v>4116400</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1230,34 +1265,34 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>284400</v>
+        <v>281700</v>
       </c>
       <c r="E29" s="3">
-        <v>-147500</v>
+        <v>-146100</v>
       </c>
       <c r="F29" s="3">
-        <v>-167200</v>
+        <v>-165600</v>
       </c>
       <c r="G29" s="3">
-        <v>-134300</v>
+        <v>-133000</v>
       </c>
       <c r="H29" s="3">
-        <v>-1240400</v>
+        <v>-1228700</v>
       </c>
       <c r="I29" s="3">
-        <v>-1980500</v>
+        <v>-1961700</v>
       </c>
       <c r="J29" s="3">
-        <v>-460900</v>
+        <v>-456500</v>
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1319,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1311,61 +1346,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>223900</v>
+        <v>221700</v>
       </c>
       <c r="E32" s="3">
-        <v>574100</v>
+        <v>568700</v>
       </c>
       <c r="F32" s="3">
-        <v>636000</v>
+        <v>630000</v>
       </c>
       <c r="G32" s="3">
-        <v>244900</v>
+        <v>242600</v>
       </c>
       <c r="H32" s="3">
-        <v>-113200</v>
+        <v>-112200</v>
       </c>
       <c r="I32" s="3">
-        <v>-156700</v>
+        <v>-155200</v>
       </c>
       <c r="J32" s="3">
-        <v>-351600</v>
+        <v>-348300</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1588000</v>
+        <v>1573000</v>
       </c>
       <c r="E33" s="3">
-        <v>-52700</v>
+        <v>-52200</v>
       </c>
       <c r="F33" s="3">
-        <v>181700</v>
+        <v>180000</v>
       </c>
       <c r="G33" s="3">
-        <v>-7559700</v>
+        <v>-7488000</v>
       </c>
       <c r="H33" s="3">
-        <v>1282600</v>
+        <v>1270400</v>
       </c>
       <c r="I33" s="3">
-        <v>36900</v>
+        <v>36500</v>
       </c>
       <c r="J33" s="3">
-        <v>3694900</v>
+        <v>3659900</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1392,39 +1427,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1588000</v>
+        <v>1573000</v>
       </c>
       <c r="E35" s="3">
-        <v>-52700</v>
+        <v>-52200</v>
       </c>
       <c r="F35" s="3">
-        <v>181700</v>
+        <v>180000</v>
       </c>
       <c r="G35" s="3">
-        <v>-7559700</v>
+        <v>-7488000</v>
       </c>
       <c r="H35" s="3">
-        <v>1282600</v>
+        <v>1270400</v>
       </c>
       <c r="I35" s="3">
-        <v>36900</v>
+        <v>36500</v>
       </c>
       <c r="J35" s="3">
-        <v>3694900</v>
+        <v>3659900</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1451,7 +1486,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1464,7 +1499,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1477,250 +1512,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5344900</v>
+        <v>5294200</v>
       </c>
       <c r="E41" s="3">
-        <v>5031500</v>
+        <v>4983800</v>
       </c>
       <c r="F41" s="3">
-        <v>4058300</v>
+        <v>4019900</v>
       </c>
       <c r="G41" s="3">
-        <v>2850900</v>
+        <v>2823800</v>
       </c>
       <c r="H41" s="3">
-        <v>3299900</v>
+        <v>3268600</v>
       </c>
       <c r="I41" s="3">
-        <v>3040500</v>
+        <v>3011700</v>
       </c>
       <c r="J41" s="3">
-        <v>2627000</v>
+        <v>2602100</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1444500</v>
+        <v>1430800</v>
       </c>
       <c r="E42" s="3">
-        <v>3964900</v>
+        <v>3927300</v>
       </c>
       <c r="F42" s="3">
-        <v>4635100</v>
+        <v>4591200</v>
       </c>
       <c r="G42" s="3">
-        <v>780900</v>
+        <v>773500</v>
       </c>
       <c r="H42" s="3">
-        <v>1337900</v>
+        <v>1325200</v>
       </c>
       <c r="I42" s="3">
-        <v>770300</v>
+        <v>763000</v>
       </c>
       <c r="J42" s="3">
-        <v>1876400</v>
+        <v>1858600</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7655800</v>
+        <v>9544900</v>
       </c>
       <c r="E43" s="3">
-        <v>7021100</v>
+        <v>6954600</v>
       </c>
       <c r="F43" s="3">
-        <v>7542600</v>
+        <v>7471100</v>
       </c>
       <c r="G43" s="3">
-        <v>7405600</v>
+        <v>7335400</v>
       </c>
       <c r="H43" s="3">
-        <v>9367600</v>
+        <v>9278900</v>
       </c>
       <c r="I43" s="3">
-        <v>6863100</v>
+        <v>6798100</v>
       </c>
       <c r="J43" s="3">
-        <v>6371900</v>
+        <v>6311600</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2979900</v>
+        <v>5904600</v>
       </c>
       <c r="E44" s="3">
-        <v>3029900</v>
+        <v>3001200</v>
       </c>
       <c r="F44" s="3">
-        <v>3199800</v>
+        <v>3169500</v>
       </c>
       <c r="G44" s="3">
-        <v>3893700</v>
+        <v>3856800</v>
       </c>
       <c r="H44" s="3">
-        <v>4708800</v>
+        <v>4664200</v>
       </c>
       <c r="I44" s="3">
-        <v>4930100</v>
+        <v>4883300</v>
       </c>
       <c r="J44" s="3">
-        <v>4737800</v>
+        <v>4692900</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>453000</v>
+        <v>448700</v>
       </c>
       <c r="E45" s="3">
-        <v>1253600</v>
+        <v>1241700</v>
       </c>
       <c r="F45" s="3">
-        <v>962600</v>
+        <v>953500</v>
       </c>
       <c r="G45" s="3">
-        <v>848000</v>
+        <v>840000</v>
       </c>
       <c r="H45" s="3">
-        <v>3802900</v>
+        <v>3766800</v>
       </c>
       <c r="I45" s="3">
-        <v>809800</v>
+        <v>802200</v>
       </c>
       <c r="J45" s="3">
-        <v>653100</v>
+        <v>646900</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17878100</v>
+        <v>17738600</v>
       </c>
       <c r="E46" s="3">
-        <v>20301000</v>
+        <v>20108500</v>
       </c>
       <c r="F46" s="3">
-        <v>19335700</v>
+        <v>19152500</v>
       </c>
       <c r="G46" s="3">
-        <v>15746200</v>
+        <v>15596900</v>
       </c>
       <c r="H46" s="3">
-        <v>20505100</v>
+        <v>20310700</v>
       </c>
       <c r="I46" s="3">
-        <v>16413800</v>
+        <v>16258200</v>
       </c>
       <c r="J46" s="3">
-        <v>16266300</v>
+        <v>16112100</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11350700</v>
+        <v>11243200</v>
       </c>
       <c r="E47" s="3">
-        <v>9924600</v>
+        <v>9830600</v>
       </c>
       <c r="F47" s="3">
-        <v>10431600</v>
+        <v>10332700</v>
       </c>
       <c r="G47" s="3">
-        <v>7665000</v>
+        <v>7592400</v>
       </c>
       <c r="H47" s="3">
-        <v>5940000</v>
+        <v>5883700</v>
       </c>
       <c r="I47" s="3">
-        <v>4973500</v>
+        <v>4926400</v>
       </c>
       <c r="J47" s="3">
-        <v>5069600</v>
+        <v>5021600</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24519900</v>
+        <v>24418000</v>
       </c>
       <c r="E48" s="3">
-        <v>23928700</v>
+        <v>23701900</v>
       </c>
       <c r="F48" s="3">
-        <v>23673300</v>
+        <v>23448900</v>
       </c>
       <c r="G48" s="3">
-        <v>30516600</v>
+        <v>30227400</v>
       </c>
       <c r="H48" s="3">
-        <v>32547100</v>
+        <v>32238600</v>
       </c>
       <c r="I48" s="3">
-        <v>35383500</v>
+        <v>35048100</v>
       </c>
       <c r="J48" s="3">
-        <v>36476400</v>
+        <v>36130700</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3504000</v>
+        <v>6941500</v>
       </c>
       <c r="E49" s="3">
-        <v>3577700</v>
+        <v>3543800</v>
       </c>
       <c r="F49" s="3">
-        <v>3784500</v>
+        <v>3748600</v>
       </c>
       <c r="G49" s="3">
-        <v>6753800</v>
+        <v>6689800</v>
       </c>
       <c r="H49" s="3">
-        <v>4997200</v>
+        <v>4949900</v>
       </c>
       <c r="I49" s="3">
-        <v>5743800</v>
+        <v>5689400</v>
       </c>
       <c r="J49" s="3">
-        <v>6080900</v>
+        <v>6023300</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1747,7 +1782,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1774,34 +1809,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1821100</v>
+        <v>1802600</v>
       </c>
       <c r="E52" s="3">
-        <v>2646700</v>
+        <v>2621700</v>
       </c>
       <c r="F52" s="3">
-        <v>2081800</v>
+        <v>2062100</v>
       </c>
       <c r="G52" s="3">
-        <v>2712600</v>
+        <v>2686900</v>
       </c>
       <c r="H52" s="3">
-        <v>2066000</v>
+        <v>2046500</v>
       </c>
       <c r="I52" s="3">
-        <v>3494800</v>
+        <v>3461600</v>
       </c>
       <c r="J52" s="3">
-        <v>2974600</v>
+        <v>2946400</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1828,34 +1863,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59073800</v>
+        <v>58542700</v>
       </c>
       <c r="E54" s="3">
-        <v>60378800</v>
+        <v>59806500</v>
       </c>
       <c r="F54" s="3">
-        <v>57812300</v>
+        <v>57264400</v>
       </c>
       <c r="G54" s="3">
-        <v>58220600</v>
+        <v>57668800</v>
       </c>
       <c r="H54" s="3">
-        <v>66055500</v>
+        <v>65429400</v>
       </c>
       <c r="I54" s="3">
-        <v>66009400</v>
+        <v>65383800</v>
       </c>
       <c r="J54" s="3">
-        <v>66867900</v>
+        <v>66234200</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1868,7 +1903,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1881,169 +1916,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7158100</v>
+        <v>18821200</v>
       </c>
       <c r="E57" s="3">
-        <v>6493100</v>
+        <v>6431600</v>
       </c>
       <c r="F57" s="3">
-        <v>6003200</v>
+        <v>5946300</v>
       </c>
       <c r="G57" s="3">
-        <v>6714300</v>
+        <v>6650700</v>
       </c>
       <c r="H57" s="3">
-        <v>7707200</v>
+        <v>7634100</v>
       </c>
       <c r="I57" s="3">
-        <v>7991600</v>
+        <v>7915900</v>
       </c>
       <c r="J57" s="3">
-        <v>8394500</v>
+        <v>8315000</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1947500</v>
+        <v>1929100</v>
       </c>
       <c r="E58" s="3">
-        <v>3371000</v>
+        <v>3339000</v>
       </c>
       <c r="F58" s="3">
-        <v>3721200</v>
+        <v>3686000</v>
       </c>
       <c r="G58" s="3">
-        <v>2644100</v>
+        <v>2619100</v>
       </c>
       <c r="H58" s="3">
-        <v>2515100</v>
+        <v>2491200</v>
       </c>
       <c r="I58" s="3">
-        <v>1008700</v>
+        <v>999100</v>
       </c>
       <c r="J58" s="3">
-        <v>2420300</v>
+        <v>2397300</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16226800</v>
+        <v>16069100</v>
       </c>
       <c r="E59" s="3">
-        <v>15688200</v>
+        <v>15539500</v>
       </c>
       <c r="F59" s="3">
-        <v>13801300</v>
+        <v>13670500</v>
       </c>
       <c r="G59" s="3">
-        <v>16727200</v>
+        <v>16568600</v>
       </c>
       <c r="H59" s="3">
-        <v>17955700</v>
+        <v>17785600</v>
       </c>
       <c r="I59" s="3">
-        <v>15999000</v>
+        <v>15847400</v>
       </c>
       <c r="J59" s="3">
-        <v>14532100</v>
+        <v>14394400</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25332400</v>
+        <v>25085800</v>
       </c>
       <c r="E60" s="3">
-        <v>25552300</v>
+        <v>25310100</v>
       </c>
       <c r="F60" s="3">
-        <v>23525800</v>
+        <v>23302800</v>
       </c>
       <c r="G60" s="3">
-        <v>26085600</v>
+        <v>25838400</v>
       </c>
       <c r="H60" s="3">
-        <v>28178000</v>
+        <v>27910900</v>
       </c>
       <c r="I60" s="3">
-        <v>24999300</v>
+        <v>24762300</v>
       </c>
       <c r="J60" s="3">
-        <v>25346900</v>
+        <v>25106700</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9404500</v>
+        <v>9315400</v>
       </c>
       <c r="E61" s="3">
-        <v>12421300</v>
+        <v>12303600</v>
       </c>
       <c r="F61" s="3">
-        <v>14104100</v>
+        <v>13970500</v>
       </c>
       <c r="G61" s="3">
-        <v>14025100</v>
+        <v>13892200</v>
       </c>
       <c r="H61" s="3">
-        <v>12250100</v>
+        <v>12134000</v>
       </c>
       <c r="I61" s="3">
-        <v>13257400</v>
+        <v>13131800</v>
       </c>
       <c r="J61" s="3">
-        <v>13050700</v>
+        <v>12927000</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10565900</v>
+        <v>10472300</v>
       </c>
       <c r="E62" s="3">
-        <v>13959300</v>
+        <v>13827000</v>
       </c>
       <c r="F62" s="3">
-        <v>8837000</v>
+        <v>8753200</v>
       </c>
       <c r="G62" s="3">
-        <v>8798800</v>
+        <v>8715400</v>
       </c>
       <c r="H62" s="3">
-        <v>6241600</v>
+        <v>6182400</v>
       </c>
       <c r="I62" s="3">
-        <v>5813600</v>
+        <v>5758500</v>
       </c>
       <c r="J62" s="3">
-        <v>5030100</v>
+        <v>4982500</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2070,7 +2105,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2097,7 +2132,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2124,34 +2159,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45273900</v>
+        <v>44844800</v>
       </c>
       <c r="E66" s="3">
-        <v>51901300</v>
+        <v>51409400</v>
       </c>
       <c r="F66" s="3">
-        <v>46453700</v>
+        <v>46013400</v>
       </c>
       <c r="G66" s="3">
-        <v>48909500</v>
+        <v>48446000</v>
       </c>
       <c r="H66" s="3">
-        <v>46678900</v>
+        <v>46236500</v>
       </c>
       <c r="I66" s="3">
-        <v>44094000</v>
+        <v>43676100</v>
       </c>
       <c r="J66" s="3">
-        <v>43462000</v>
+        <v>43050100</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2164,7 +2199,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2191,7 +2226,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2218,7 +2253,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2245,7 +2280,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2272,34 +2307,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5641100</v>
+        <v>5616400</v>
       </c>
       <c r="E72" s="3">
-        <v>510900</v>
+        <v>506100</v>
       </c>
       <c r="F72" s="3">
-        <v>4373100</v>
+        <v>4331600</v>
       </c>
       <c r="G72" s="3">
-        <v>2687600</v>
+        <v>2662100</v>
       </c>
       <c r="H72" s="3">
-        <v>12883500</v>
+        <v>12761400</v>
       </c>
       <c r="I72" s="3">
-        <v>14774400</v>
+        <v>14634400</v>
       </c>
       <c r="J72" s="3">
-        <v>16187300</v>
+        <v>16033900</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2326,7 +2361,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2353,7 +2388,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2380,34 +2415,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13800000</v>
+        <v>13697900</v>
       </c>
       <c r="E76" s="3">
-        <v>8477500</v>
+        <v>8397100</v>
       </c>
       <c r="F76" s="3">
-        <v>11358600</v>
+        <v>11251000</v>
       </c>
       <c r="G76" s="3">
-        <v>9311000</v>
+        <v>9222800</v>
       </c>
       <c r="H76" s="3">
-        <v>19376600</v>
+        <v>19192900</v>
       </c>
       <c r="I76" s="3">
-        <v>21915300</v>
+        <v>21707600</v>
       </c>
       <c r="J76" s="3">
-        <v>23405900</v>
+        <v>23184100</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2434,12 +2469,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2466,34 +2501,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1588000</v>
+        <v>1573000</v>
       </c>
       <c r="E81" s="3">
-        <v>-52700</v>
+        <v>-52200</v>
       </c>
       <c r="F81" s="3">
-        <v>181700</v>
+        <v>180000</v>
       </c>
       <c r="G81" s="3">
-        <v>-7559700</v>
+        <v>-7488000</v>
       </c>
       <c r="H81" s="3">
-        <v>1282600</v>
+        <v>1270400</v>
       </c>
       <c r="I81" s="3">
-        <v>36900</v>
+        <v>36500</v>
       </c>
       <c r="J81" s="3">
-        <v>3694900</v>
+        <v>3659900</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2506,34 +2541,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1705200</v>
+        <v>1689100</v>
       </c>
       <c r="E83" s="3">
-        <v>1717100</v>
+        <v>1700800</v>
       </c>
       <c r="F83" s="3">
-        <v>1756600</v>
+        <v>1739900</v>
       </c>
       <c r="G83" s="3">
-        <v>2043700</v>
+        <v>2024300</v>
       </c>
       <c r="H83" s="3">
-        <v>2063400</v>
+        <v>2043900</v>
       </c>
       <c r="I83" s="3">
-        <v>2093700</v>
+        <v>2073900</v>
       </c>
       <c r="J83" s="3">
-        <v>1972600</v>
+        <v>1953900</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2560,7 +2595,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2587,7 +2622,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2614,7 +2649,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2641,7 +2676,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2668,34 +2703,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3663300</v>
+        <v>3628600</v>
       </c>
       <c r="E89" s="3">
-        <v>2604600</v>
+        <v>2579900</v>
       </c>
       <c r="F89" s="3">
-        <v>2799500</v>
+        <v>2773000</v>
       </c>
       <c r="G89" s="3">
-        <v>625500</v>
+        <v>619500</v>
       </c>
       <c r="H89" s="3">
-        <v>3789700</v>
+        <v>3753800</v>
       </c>
       <c r="I89" s="3">
-        <v>3710700</v>
+        <v>3675500</v>
       </c>
       <c r="J89" s="3">
-        <v>5796500</v>
+        <v>5741600</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2708,34 +2743,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2155600</v>
+        <v>-1878200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1809300</v>
+        <v>-1571700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1366800</v>
+        <v>-1136100</v>
       </c>
       <c r="G91" s="3">
-        <v>-3052300</v>
+        <v>-2594300</v>
       </c>
       <c r="H91" s="3">
-        <v>-3793700</v>
+        <v>-3246400</v>
       </c>
       <c r="I91" s="3">
-        <v>-3933300</v>
+        <v>-3416000</v>
       </c>
       <c r="J91" s="3">
-        <v>-4882700</v>
+        <v>-4400700</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2762,7 +2797,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2789,34 +2824,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>877000</v>
+        <v>868700</v>
       </c>
       <c r="E94" s="3">
-        <v>367400</v>
+        <v>363900</v>
       </c>
       <c r="F94" s="3">
-        <v>-809800</v>
+        <v>-802200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2653300</v>
+        <v>-2628200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3758100</v>
+        <v>-3722500</v>
       </c>
       <c r="I94" s="3">
-        <v>-366100</v>
+        <v>-362600</v>
       </c>
       <c r="J94" s="3">
-        <v>-4191300</v>
+        <v>-4151600</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2829,12 +2864,12 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-108000</v>
+        <v>-107000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2843,20 +2878,20 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1203500</v>
+        <v>-1192100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1565700</v>
+        <v>-1550800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1559100</v>
+        <v>-1544300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1553800</v>
+        <v>-1539100</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2883,7 +2918,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2910,7 +2945,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2937,84 +2972,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4261100</v>
+        <v>-4220700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1826400</v>
+        <v>-1809100</v>
       </c>
       <c r="F100" s="3">
-        <v>-795300</v>
+        <v>-787800</v>
       </c>
       <c r="G100" s="3">
-        <v>1071900</v>
+        <v>1061700</v>
       </c>
       <c r="H100" s="3">
-        <v>73700</v>
+        <v>73000</v>
       </c>
       <c r="I100" s="3">
-        <v>-3114200</v>
+        <v>-3084700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1798700</v>
+        <v>-1781700</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="E101" s="3">
-        <v>-172500</v>
+        <v>-170900</v>
       </c>
       <c r="F101" s="3">
         <v>1300</v>
       </c>
       <c r="G101" s="3">
-        <v>102700</v>
+        <v>101700</v>
       </c>
       <c r="H101" s="3">
-        <v>-138300</v>
+        <v>-137000</v>
       </c>
       <c r="I101" s="3">
-        <v>34200</v>
+        <v>33900</v>
       </c>
       <c r="J101" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>298900</v>
+        <v>296100</v>
       </c>
       <c r="E102" s="3">
-        <v>973100</v>
+        <v>963900</v>
       </c>
       <c r="F102" s="3">
-        <v>1195600</v>
+        <v>1184300</v>
       </c>
       <c r="G102" s="3">
-        <v>-853300</v>
+        <v>-845200</v>
       </c>
       <c r="H102" s="3">
-        <v>-32900</v>
+        <v>-32600</v>
       </c>
       <c r="I102" s="3">
-        <v>264700</v>
+        <v>262200</v>
       </c>
       <c r="J102" s="3">
-        <v>-162000</v>
+        <v>-160400</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/TSCDY_YR_FIN.xlsx
+++ b/Financials/Yearly/TSCDY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B057C96-C4B2-4A63-A2C1-D1683499D30B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TSCDY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>TSCDY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,142 +654,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43519</v>
+      </c>
+      <c r="E7" s="2">
         <v>43155</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42791</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42427</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42063</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41692</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41328</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40964</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>74986100</v>
+        <v>82624800</v>
       </c>
       <c r="E8" s="3">
-        <v>72933100</v>
+        <v>74327500</v>
       </c>
       <c r="F8" s="3">
-        <v>70345400</v>
+        <v>72290100</v>
       </c>
       <c r="G8" s="3">
-        <v>74247800</v>
+        <v>69725100</v>
       </c>
       <c r="H8" s="3">
-        <v>82898000</v>
+        <v>73593200</v>
       </c>
       <c r="I8" s="3">
-        <v>82701100</v>
+        <v>82167100</v>
       </c>
       <c r="J8" s="3">
+        <v>81971900</v>
+      </c>
+      <c r="K8" s="3">
         <v>83366300</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>70552700</v>
+        <v>77174300</v>
       </c>
       <c r="E9" s="3">
-        <v>68996700</v>
+        <v>69930700</v>
       </c>
       <c r="F9" s="3">
-        <v>66681500</v>
+        <v>68388400</v>
       </c>
       <c r="G9" s="3">
-        <v>70754900</v>
+        <v>66093600</v>
       </c>
       <c r="H9" s="3">
-        <v>76710400</v>
+        <v>70131100</v>
       </c>
       <c r="I9" s="3">
-        <v>156292900</v>
+        <v>76034000</v>
       </c>
       <c r="J9" s="3">
+        <v>154914800</v>
+      </c>
+      <c r="K9" s="3">
         <v>76326900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4433300</v>
+        <v>5450500</v>
       </c>
       <c r="E10" s="3">
-        <v>3936400</v>
+        <v>4396800</v>
       </c>
       <c r="F10" s="3">
-        <v>3663800</v>
+        <v>3901700</v>
       </c>
       <c r="G10" s="3">
-        <v>3492900</v>
+        <v>3631500</v>
       </c>
       <c r="H10" s="3">
-        <v>6187600</v>
+        <v>3462100</v>
       </c>
       <c r="I10" s="3">
-        <v>-73591800</v>
+        <v>6133100</v>
       </c>
       <c r="J10" s="3">
+        <v>-72942900</v>
+      </c>
+      <c r="K10" s="3">
         <v>7039400</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +813,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,63 +870,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13000</v>
+        <v>81400</v>
       </c>
       <c r="E14" s="3">
-        <v>558200</v>
+        <v>12900</v>
       </c>
       <c r="F14" s="3">
-        <v>480000</v>
+        <v>553300</v>
       </c>
       <c r="G14" s="3">
-        <v>9967500</v>
+        <v>475800</v>
       </c>
       <c r="H14" s="3">
-        <v>829500</v>
+        <v>9879700</v>
       </c>
       <c r="I14" s="3">
-        <v>1134700</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>822200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1124700</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>100800</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -954,62 +944,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>72590100</v>
+        <v>79841400</v>
       </c>
       <c r="E17" s="3">
-        <v>71606600</v>
+        <v>71950000</v>
       </c>
       <c r="F17" s="3">
-        <v>68947100</v>
+        <v>70975300</v>
       </c>
       <c r="G17" s="3">
-        <v>81747600</v>
+        <v>68339200</v>
       </c>
       <c r="H17" s="3">
-        <v>79466400</v>
+        <v>81026900</v>
       </c>
       <c r="I17" s="3">
-        <v>79594200</v>
+        <v>78765700</v>
       </c>
       <c r="J17" s="3">
+        <v>78892400</v>
+      </c>
+      <c r="K17" s="3">
         <v>77911700</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2396000</v>
+        <v>2783400</v>
       </c>
       <c r="E18" s="3">
-        <v>1326500</v>
+        <v>2377500</v>
       </c>
       <c r="F18" s="3">
-        <v>1398200</v>
+        <v>1314800</v>
       </c>
       <c r="G18" s="3">
-        <v>-7499800</v>
+        <v>1385900</v>
       </c>
       <c r="H18" s="3">
-        <v>3431600</v>
+        <v>-7433700</v>
       </c>
       <c r="I18" s="3">
-        <v>3106900</v>
+        <v>3401400</v>
       </c>
       <c r="J18" s="3">
+        <v>3079500</v>
+      </c>
+      <c r="K18" s="3">
         <v>5454600</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1021,143 +1018,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-221700</v>
+        <v>-302500</v>
       </c>
       <c r="E20" s="3">
-        <v>-568700</v>
+        <v>-259900</v>
       </c>
       <c r="F20" s="3">
-        <v>-630000</v>
+        <v>-563700</v>
       </c>
       <c r="G20" s="3">
-        <v>-242600</v>
+        <v>-624400</v>
       </c>
       <c r="H20" s="3">
-        <v>112200</v>
+        <v>-240500</v>
       </c>
       <c r="I20" s="3">
-        <v>155200</v>
+        <v>111200</v>
       </c>
       <c r="J20" s="3">
+        <v>153800</v>
+      </c>
+      <c r="K20" s="3">
         <v>348300</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3882300</v>
+        <v>4268400</v>
       </c>
       <c r="E21" s="3">
-        <v>2477600</v>
+        <v>3801100</v>
       </c>
       <c r="F21" s="3">
-        <v>2527700</v>
+        <v>2446300</v>
       </c>
       <c r="G21" s="3">
-        <v>-5695500</v>
+        <v>2495700</v>
       </c>
       <c r="H21" s="3">
-        <v>5610500</v>
+        <v>-5656500</v>
       </c>
       <c r="I21" s="3">
-        <v>5359100</v>
+        <v>5549700</v>
       </c>
       <c r="J21" s="3">
+        <v>5300300</v>
+      </c>
+      <c r="K21" s="3">
         <v>7778600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>481300</v>
+        <v>316700</v>
       </c>
       <c r="E22" s="3">
-        <v>568700</v>
+        <v>437000</v>
       </c>
       <c r="F22" s="3">
-        <v>504800</v>
+        <v>563700</v>
       </c>
       <c r="G22" s="3">
-        <v>519100</v>
+        <v>500300</v>
       </c>
       <c r="H22" s="3">
-        <v>597400</v>
+        <v>514500</v>
       </c>
       <c r="I22" s="3">
-        <v>579100</v>
+        <v>592100</v>
       </c>
       <c r="J22" s="3">
+        <v>574000</v>
+      </c>
+      <c r="K22" s="3">
         <v>536100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1693000</v>
+        <v>2164200</v>
       </c>
       <c r="E23" s="3">
-        <v>189100</v>
+        <v>1680700</v>
       </c>
       <c r="F23" s="3">
-        <v>263500</v>
+        <v>187500</v>
       </c>
       <c r="G23" s="3">
-        <v>-8261500</v>
+        <v>261100</v>
       </c>
       <c r="H23" s="3">
-        <v>2946400</v>
+        <v>-8188700</v>
       </c>
       <c r="I23" s="3">
-        <v>2683000</v>
+        <v>2920500</v>
       </c>
       <c r="J23" s="3">
+        <v>2659300</v>
+      </c>
+      <c r="K23" s="3">
         <v>5266800</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>399100</v>
+        <v>457700</v>
       </c>
       <c r="E24" s="3">
-        <v>113500</v>
+        <v>395600</v>
       </c>
       <c r="F24" s="3">
-        <v>-70400</v>
+        <v>112500</v>
       </c>
       <c r="G24" s="3">
-        <v>-873900</v>
+        <v>-69800</v>
       </c>
       <c r="H24" s="3">
-        <v>452600</v>
+        <v>-866200</v>
       </c>
       <c r="I24" s="3">
-        <v>690000</v>
+        <v>448600</v>
       </c>
       <c r="J24" s="3">
+        <v>683900</v>
+      </c>
+      <c r="K24" s="3">
         <v>1140000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,63 +1195,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1293900</v>
+        <v>1706500</v>
       </c>
       <c r="E26" s="3">
-        <v>75600</v>
+        <v>1285100</v>
       </c>
       <c r="F26" s="3">
-        <v>333900</v>
+        <v>75000</v>
       </c>
       <c r="G26" s="3">
-        <v>-7387600</v>
+        <v>331000</v>
       </c>
       <c r="H26" s="3">
-        <v>2493800</v>
+        <v>-7322500</v>
       </c>
       <c r="I26" s="3">
-        <v>1993000</v>
+        <v>2471900</v>
       </c>
       <c r="J26" s="3">
+        <v>1975400</v>
+      </c>
+      <c r="K26" s="3">
         <v>4126800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1291300</v>
+        <v>1709100</v>
       </c>
       <c r="E27" s="3">
-        <v>93900</v>
+        <v>1282500</v>
       </c>
       <c r="F27" s="3">
-        <v>345600</v>
+        <v>93100</v>
       </c>
       <c r="G27" s="3">
-        <v>-7355000</v>
+        <v>342600</v>
       </c>
       <c r="H27" s="3">
-        <v>2499100</v>
+        <v>-7290200</v>
       </c>
       <c r="I27" s="3">
-        <v>1998200</v>
+        <v>2477000</v>
       </c>
       <c r="J27" s="3">
+        <v>1980600</v>
+      </c>
+      <c r="K27" s="3">
         <v>4116400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1263,36 +1285,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>281700</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-146100</v>
+        <v>279200</v>
       </c>
       <c r="F29" s="3">
-        <v>-165600</v>
+        <v>-144800</v>
       </c>
       <c r="G29" s="3">
-        <v>-133000</v>
+        <v>-164200</v>
       </c>
       <c r="H29" s="3">
-        <v>-1228700</v>
+        <v>-131900</v>
       </c>
       <c r="I29" s="3">
-        <v>-1961700</v>
+        <v>-1217800</v>
       </c>
       <c r="J29" s="3">
+        <v>-1944400</v>
+      </c>
+      <c r="K29" s="3">
         <v>-456500</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1317,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1344,63 +1375,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>221700</v>
+        <v>302500</v>
       </c>
       <c r="E32" s="3">
-        <v>568700</v>
+        <v>259900</v>
       </c>
       <c r="F32" s="3">
-        <v>630000</v>
+        <v>563700</v>
       </c>
       <c r="G32" s="3">
-        <v>242600</v>
+        <v>624400</v>
       </c>
       <c r="H32" s="3">
-        <v>-112200</v>
+        <v>240500</v>
       </c>
       <c r="I32" s="3">
-        <v>-155200</v>
+        <v>-111200</v>
       </c>
       <c r="J32" s="3">
+        <v>-153800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-348300</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1573000</v>
+        <v>1709100</v>
       </c>
       <c r="E33" s="3">
-        <v>-52200</v>
+        <v>1561700</v>
       </c>
       <c r="F33" s="3">
-        <v>180000</v>
+        <v>-51700</v>
       </c>
       <c r="G33" s="3">
-        <v>-7488000</v>
+        <v>178400</v>
       </c>
       <c r="H33" s="3">
-        <v>1270400</v>
+        <v>-7422000</v>
       </c>
       <c r="I33" s="3">
-        <v>36500</v>
+        <v>1259200</v>
       </c>
       <c r="J33" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K33" s="3">
         <v>3659900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1425,68 +1465,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1573000</v>
+        <v>1709100</v>
       </c>
       <c r="E35" s="3">
-        <v>-52200</v>
+        <v>1561700</v>
       </c>
       <c r="F35" s="3">
-        <v>180000</v>
+        <v>-51700</v>
       </c>
       <c r="G35" s="3">
-        <v>-7488000</v>
+        <v>178400</v>
       </c>
       <c r="H35" s="3">
-        <v>1270400</v>
+        <v>-7422000</v>
       </c>
       <c r="I35" s="3">
-        <v>36500</v>
+        <v>1259200</v>
       </c>
       <c r="J35" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K35" s="3">
         <v>3659900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43519</v>
+      </c>
+      <c r="E38" s="2">
         <v>43155</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42791</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42427</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42063</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41692</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41328</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40964</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1498,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1511,251 +1561,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5294200</v>
+        <v>3769800</v>
       </c>
       <c r="E41" s="3">
-        <v>4983800</v>
+        <v>5247500</v>
       </c>
       <c r="F41" s="3">
-        <v>4019900</v>
+        <v>4939800</v>
       </c>
       <c r="G41" s="3">
-        <v>2823800</v>
+        <v>3984400</v>
       </c>
       <c r="H41" s="3">
-        <v>3268600</v>
+        <v>2798900</v>
       </c>
       <c r="I41" s="3">
-        <v>3011700</v>
+        <v>3239800</v>
       </c>
       <c r="J41" s="3">
+        <v>2985100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2602100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1430800</v>
+        <v>590800</v>
       </c>
       <c r="E42" s="3">
-        <v>3927300</v>
+        <v>1418200</v>
       </c>
       <c r="F42" s="3">
-        <v>4591200</v>
+        <v>3892700</v>
       </c>
       <c r="G42" s="3">
-        <v>773500</v>
+        <v>4550700</v>
       </c>
       <c r="H42" s="3">
-        <v>1325200</v>
+        <v>766600</v>
       </c>
       <c r="I42" s="3">
-        <v>763000</v>
+        <v>1313500</v>
       </c>
       <c r="J42" s="3">
+        <v>756300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1858600</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9544900</v>
+        <v>10059400</v>
       </c>
       <c r="E43" s="3">
-        <v>6954600</v>
+        <v>9489200</v>
       </c>
       <c r="F43" s="3">
-        <v>7471100</v>
+        <v>6893300</v>
       </c>
       <c r="G43" s="3">
-        <v>7335400</v>
+        <v>7405200</v>
       </c>
       <c r="H43" s="3">
-        <v>9278900</v>
+        <v>7270800</v>
       </c>
       <c r="I43" s="3">
-        <v>6798100</v>
+        <v>9197100</v>
       </c>
       <c r="J43" s="3">
+        <v>6738100</v>
+      </c>
+      <c r="K43" s="3">
         <v>6311600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5904600</v>
+        <v>6766600</v>
       </c>
       <c r="E44" s="3">
-        <v>3001200</v>
+        <v>5853800</v>
       </c>
       <c r="F44" s="3">
-        <v>3169500</v>
+        <v>2974800</v>
       </c>
       <c r="G44" s="3">
-        <v>3856800</v>
+        <v>3141500</v>
       </c>
       <c r="H44" s="3">
-        <v>4664200</v>
+        <v>3822800</v>
       </c>
       <c r="I44" s="3">
-        <v>4883300</v>
+        <v>4623100</v>
       </c>
       <c r="J44" s="3">
+        <v>4840300</v>
+      </c>
+      <c r="K44" s="3">
         <v>4692900</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>448700</v>
+        <v>451200</v>
       </c>
       <c r="E45" s="3">
-        <v>1241700</v>
+        <v>444700</v>
       </c>
       <c r="F45" s="3">
-        <v>953500</v>
+        <v>1230800</v>
       </c>
       <c r="G45" s="3">
-        <v>840000</v>
+        <v>945000</v>
       </c>
       <c r="H45" s="3">
-        <v>3766800</v>
+        <v>832600</v>
       </c>
       <c r="I45" s="3">
-        <v>802200</v>
+        <v>3733600</v>
       </c>
       <c r="J45" s="3">
+        <v>795100</v>
+      </c>
+      <c r="K45" s="3">
         <v>646900</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17738600</v>
+        <v>16134300</v>
       </c>
       <c r="E46" s="3">
-        <v>20108500</v>
+        <v>17582200</v>
       </c>
       <c r="F46" s="3">
-        <v>19152500</v>
+        <v>19931300</v>
       </c>
       <c r="G46" s="3">
-        <v>15596900</v>
+        <v>18983600</v>
       </c>
       <c r="H46" s="3">
-        <v>20310700</v>
+        <v>15459400</v>
       </c>
       <c r="I46" s="3">
-        <v>16258200</v>
+        <v>20131600</v>
       </c>
       <c r="J46" s="3">
+        <v>16114900</v>
+      </c>
+      <c r="K46" s="3">
         <v>16112100</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11243200</v>
+        <v>12529900</v>
       </c>
       <c r="E47" s="3">
-        <v>9830600</v>
+        <v>11144000</v>
       </c>
       <c r="F47" s="3">
-        <v>10332700</v>
+        <v>9743900</v>
       </c>
       <c r="G47" s="3">
-        <v>7592400</v>
+        <v>10241600</v>
       </c>
       <c r="H47" s="3">
-        <v>5883700</v>
+        <v>7525400</v>
       </c>
       <c r="I47" s="3">
-        <v>4926400</v>
+        <v>5831900</v>
       </c>
       <c r="J47" s="3">
+        <v>4882900</v>
+      </c>
+      <c r="K47" s="3">
         <v>5021600</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24418000</v>
+        <v>59461500</v>
       </c>
       <c r="E48" s="3">
-        <v>23701900</v>
+        <v>24202700</v>
       </c>
       <c r="F48" s="3">
-        <v>23448900</v>
+        <v>23492900</v>
       </c>
       <c r="G48" s="3">
-        <v>30227400</v>
+        <v>23242100</v>
       </c>
       <c r="H48" s="3">
-        <v>32238600</v>
+        <v>29960900</v>
       </c>
       <c r="I48" s="3">
-        <v>35048100</v>
+        <v>31954400</v>
       </c>
       <c r="J48" s="3">
+        <v>34739100</v>
+      </c>
+      <c r="K48" s="3">
         <v>36130700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6941500</v>
+        <v>16196300</v>
       </c>
       <c r="E49" s="3">
-        <v>3543800</v>
+        <v>6880300</v>
       </c>
       <c r="F49" s="3">
-        <v>3748600</v>
+        <v>3512600</v>
       </c>
       <c r="G49" s="3">
-        <v>6689800</v>
+        <v>3715500</v>
       </c>
       <c r="H49" s="3">
-        <v>4949900</v>
+        <v>6630800</v>
       </c>
       <c r="I49" s="3">
-        <v>5689400</v>
+        <v>4906200</v>
       </c>
       <c r="J49" s="3">
+        <v>5639200</v>
+      </c>
+      <c r="K49" s="3">
         <v>6023300</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1780,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1807,36 +1888,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1802600</v>
+        <v>1974100</v>
       </c>
       <c r="E52" s="3">
-        <v>2621700</v>
+        <v>1786700</v>
       </c>
       <c r="F52" s="3">
-        <v>2062100</v>
+        <v>2598500</v>
       </c>
       <c r="G52" s="3">
-        <v>2686900</v>
+        <v>2043900</v>
       </c>
       <c r="H52" s="3">
-        <v>2046500</v>
+        <v>2663200</v>
       </c>
       <c r="I52" s="3">
-        <v>3461600</v>
+        <v>2028400</v>
       </c>
       <c r="J52" s="3">
+        <v>3431100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2946400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1861,36 +1948,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58542700</v>
+        <v>73558300</v>
       </c>
       <c r="E54" s="3">
-        <v>59806500</v>
+        <v>58026500</v>
       </c>
       <c r="F54" s="3">
-        <v>57264400</v>
+        <v>59279200</v>
       </c>
       <c r="G54" s="3">
-        <v>57668800</v>
+        <v>56759500</v>
       </c>
       <c r="H54" s="3">
-        <v>65429400</v>
+        <v>57160300</v>
       </c>
       <c r="I54" s="3">
-        <v>65383800</v>
+        <v>64852500</v>
       </c>
       <c r="J54" s="3">
+        <v>64807300</v>
+      </c>
+      <c r="K54" s="3">
         <v>66234200</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1902,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1915,170 +2009,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18821200</v>
+        <v>19264200</v>
       </c>
       <c r="E57" s="3">
-        <v>6431600</v>
+        <v>18655200</v>
       </c>
       <c r="F57" s="3">
-        <v>5946300</v>
+        <v>6374800</v>
       </c>
       <c r="G57" s="3">
-        <v>6650700</v>
+        <v>5893900</v>
       </c>
       <c r="H57" s="3">
-        <v>7634100</v>
+        <v>6592000</v>
       </c>
       <c r="I57" s="3">
-        <v>7915900</v>
+        <v>7566800</v>
       </c>
       <c r="J57" s="3">
+        <v>7846100</v>
+      </c>
+      <c r="K57" s="3">
         <v>8315000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1929100</v>
+        <v>2902400</v>
       </c>
       <c r="E58" s="3">
-        <v>3339000</v>
+        <v>1912100</v>
       </c>
       <c r="F58" s="3">
-        <v>3686000</v>
+        <v>3309600</v>
       </c>
       <c r="G58" s="3">
-        <v>2619100</v>
+        <v>3653500</v>
       </c>
       <c r="H58" s="3">
-        <v>2491200</v>
+        <v>2596000</v>
       </c>
       <c r="I58" s="3">
-        <v>999100</v>
+        <v>2469300</v>
       </c>
       <c r="J58" s="3">
+        <v>990300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2397300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16069100</v>
+        <v>17087100</v>
       </c>
       <c r="E59" s="3">
-        <v>15539500</v>
+        <v>15924800</v>
       </c>
       <c r="F59" s="3">
-        <v>13670500</v>
+        <v>15402500</v>
       </c>
       <c r="G59" s="3">
-        <v>16568600</v>
+        <v>13549900</v>
       </c>
       <c r="H59" s="3">
-        <v>17785600</v>
+        <v>16422600</v>
       </c>
       <c r="I59" s="3">
-        <v>15847400</v>
+        <v>17628800</v>
       </c>
       <c r="J59" s="3">
+        <v>15707600</v>
+      </c>
+      <c r="K59" s="3">
         <v>14394400</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25085800</v>
+        <v>27114100</v>
       </c>
       <c r="E60" s="3">
-        <v>25310100</v>
+        <v>24864600</v>
       </c>
       <c r="F60" s="3">
-        <v>23302800</v>
+        <v>25087000</v>
       </c>
       <c r="G60" s="3">
-        <v>25838400</v>
+        <v>23097300</v>
       </c>
       <c r="H60" s="3">
-        <v>27910900</v>
+        <v>25610600</v>
       </c>
       <c r="I60" s="3">
-        <v>24762300</v>
+        <v>27664800</v>
       </c>
       <c r="J60" s="3">
+        <v>24544000</v>
+      </c>
+      <c r="K60" s="3">
         <v>25106700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9315400</v>
+        <v>19959700</v>
       </c>
       <c r="E61" s="3">
-        <v>12303600</v>
+        <v>9233200</v>
       </c>
       <c r="F61" s="3">
-        <v>13970500</v>
+        <v>12195100</v>
       </c>
       <c r="G61" s="3">
-        <v>13892200</v>
+        <v>13847300</v>
       </c>
       <c r="H61" s="3">
-        <v>12134000</v>
+        <v>13769700</v>
       </c>
       <c r="I61" s="3">
-        <v>13131800</v>
+        <v>12027000</v>
       </c>
       <c r="J61" s="3">
+        <v>13016000</v>
+      </c>
+      <c r="K61" s="3">
         <v>12927000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10472300</v>
+        <v>9119500</v>
       </c>
       <c r="E62" s="3">
-        <v>13827000</v>
+        <v>10380000</v>
       </c>
       <c r="F62" s="3">
-        <v>8753200</v>
+        <v>13705100</v>
       </c>
       <c r="G62" s="3">
-        <v>8715400</v>
+        <v>8676000</v>
       </c>
       <c r="H62" s="3">
-        <v>6182400</v>
+        <v>8638600</v>
       </c>
       <c r="I62" s="3">
-        <v>5758500</v>
+        <v>6127900</v>
       </c>
       <c r="J62" s="3">
+        <v>5707800</v>
+      </c>
+      <c r="K62" s="3">
         <v>4982500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2103,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2130,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2157,36 +2276,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44844800</v>
+        <v>56162300</v>
       </c>
       <c r="E66" s="3">
-        <v>51409400</v>
+        <v>44449400</v>
       </c>
       <c r="F66" s="3">
-        <v>46013400</v>
+        <v>50956100</v>
       </c>
       <c r="G66" s="3">
-        <v>48446000</v>
+        <v>45607800</v>
       </c>
       <c r="H66" s="3">
-        <v>46236500</v>
+        <v>48018800</v>
       </c>
       <c r="I66" s="3">
-        <v>43676100</v>
+        <v>45828800</v>
       </c>
       <c r="J66" s="3">
+        <v>43291000</v>
+      </c>
+      <c r="K66" s="3">
         <v>43050100</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2198,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2224,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2251,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2278,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2305,36 +2440,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5616400</v>
+        <v>9220300</v>
       </c>
       <c r="E72" s="3">
-        <v>506100</v>
+        <v>5566800</v>
       </c>
       <c r="F72" s="3">
-        <v>4331600</v>
+        <v>501600</v>
       </c>
       <c r="G72" s="3">
-        <v>2662100</v>
+        <v>4293400</v>
       </c>
       <c r="H72" s="3">
-        <v>12761400</v>
+        <v>2638600</v>
       </c>
       <c r="I72" s="3">
-        <v>14634400</v>
+        <v>12648900</v>
       </c>
       <c r="J72" s="3">
+        <v>14505300</v>
+      </c>
+      <c r="K72" s="3">
         <v>16033900</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2359,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2386,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2413,36 +2560,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13697900</v>
+        <v>17396100</v>
       </c>
       <c r="E76" s="3">
-        <v>8397100</v>
+        <v>13577100</v>
       </c>
       <c r="F76" s="3">
-        <v>11251000</v>
+        <v>8323100</v>
       </c>
       <c r="G76" s="3">
-        <v>9222800</v>
+        <v>11151800</v>
       </c>
       <c r="H76" s="3">
-        <v>19192900</v>
+        <v>9141500</v>
       </c>
       <c r="I76" s="3">
-        <v>21707600</v>
+        <v>19023700</v>
       </c>
       <c r="J76" s="3">
+        <v>21516200</v>
+      </c>
+      <c r="K76" s="3">
         <v>23184100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2467,68 +2620,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43519</v>
+      </c>
+      <c r="E80" s="2">
         <v>43155</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42791</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42427</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42063</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41692</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41328</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40964</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1573000</v>
+        <v>1709100</v>
       </c>
       <c r="E81" s="3">
-        <v>-52200</v>
+        <v>1561700</v>
       </c>
       <c r="F81" s="3">
-        <v>180000</v>
+        <v>-51700</v>
       </c>
       <c r="G81" s="3">
-        <v>-7488000</v>
+        <v>178400</v>
       </c>
       <c r="H81" s="3">
-        <v>1270400</v>
+        <v>-7422000</v>
       </c>
       <c r="I81" s="3">
-        <v>36500</v>
+        <v>1259200</v>
       </c>
       <c r="J81" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K81" s="3">
         <v>3659900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2540,35 +2702,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1689100</v>
+        <v>1777600</v>
       </c>
       <c r="E83" s="3">
-        <v>1700800</v>
+        <v>1674200</v>
       </c>
       <c r="F83" s="3">
-        <v>1739900</v>
+        <v>1685800</v>
       </c>
       <c r="G83" s="3">
-        <v>2024300</v>
+        <v>1724600</v>
       </c>
       <c r="H83" s="3">
-        <v>2043900</v>
+        <v>2006400</v>
       </c>
       <c r="I83" s="3">
-        <v>2073900</v>
+        <v>2025800</v>
       </c>
       <c r="J83" s="3">
+        <v>2055600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1953900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2593,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2620,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2647,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2674,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2701,36 +2879,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3628600</v>
+        <v>2541700</v>
       </c>
       <c r="E89" s="3">
-        <v>2579900</v>
+        <v>3626300</v>
       </c>
       <c r="F89" s="3">
-        <v>2773000</v>
+        <v>2557200</v>
       </c>
       <c r="G89" s="3">
-        <v>619500</v>
+        <v>2748500</v>
       </c>
       <c r="H89" s="3">
-        <v>3753800</v>
+        <v>614100</v>
       </c>
       <c r="I89" s="3">
-        <v>3675500</v>
+        <v>3720700</v>
       </c>
       <c r="J89" s="3">
+        <v>3643100</v>
+      </c>
+      <c r="K89" s="3">
         <v>5741600</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2742,35 +2926,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1878200</v>
+        <v>-1423400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1571700</v>
+        <v>-1861600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1136100</v>
+        <v>-1557800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2594300</v>
+        <v>-1126000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3246400</v>
+        <v>-2571400</v>
       </c>
       <c r="I91" s="3">
-        <v>-3416000</v>
+        <v>-3217800</v>
       </c>
       <c r="J91" s="3">
+        <v>-3385900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4400700</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2795,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2822,36 +3013,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>868700</v>
+        <v>-1477700</v>
       </c>
       <c r="E94" s="3">
-        <v>363900</v>
+        <v>831300</v>
       </c>
       <c r="F94" s="3">
-        <v>-802200</v>
+        <v>360700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2628200</v>
+        <v>-795100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3722500</v>
+        <v>-2605000</v>
       </c>
       <c r="I94" s="3">
-        <v>-362600</v>
+        <v>-3689700</v>
       </c>
       <c r="J94" s="3">
+        <v>-359400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4151600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2863,35 +3060,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-107000</v>
+        <v>-461500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-106000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1192100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1550800</v>
+        <v>-1181600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1544300</v>
+        <v>-1537200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1530700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1539100</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2916,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2943,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2970,88 +3177,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4220700</v>
+        <v>-2561100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1809100</v>
+        <v>-4183500</v>
       </c>
       <c r="F100" s="3">
-        <v>-787800</v>
+        <v>-1793100</v>
       </c>
       <c r="G100" s="3">
-        <v>1061700</v>
+        <v>-780900</v>
       </c>
       <c r="H100" s="3">
-        <v>73000</v>
+        <v>1052300</v>
       </c>
       <c r="I100" s="3">
-        <v>-3084700</v>
+        <v>72400</v>
       </c>
       <c r="J100" s="3">
+        <v>-3057500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1781700</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="E101" s="3">
-        <v>-170900</v>
+        <v>19400</v>
       </c>
       <c r="F101" s="3">
+        <v>-169400</v>
+      </c>
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
-        <v>101700</v>
-      </c>
       <c r="H101" s="3">
-        <v>-137000</v>
+        <v>100800</v>
       </c>
       <c r="I101" s="3">
-        <v>33900</v>
+        <v>-135700</v>
       </c>
       <c r="J101" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K101" s="3">
         <v>31300</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>296100</v>
+        <v>-1477700</v>
       </c>
       <c r="E102" s="3">
-        <v>963900</v>
+        <v>293500</v>
       </c>
       <c r="F102" s="3">
-        <v>1184300</v>
+        <v>955400</v>
       </c>
       <c r="G102" s="3">
-        <v>-845200</v>
+        <v>1173900</v>
       </c>
       <c r="H102" s="3">
-        <v>-32600</v>
+        <v>-837700</v>
       </c>
       <c r="I102" s="3">
-        <v>262200</v>
+        <v>-32300</v>
       </c>
       <c r="J102" s="3">
+        <v>259900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-160400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
